--- a/biology/Botanique/Liste_des_villes_et_villages_fleuris_de_la_Mayenne/Liste_des_villes_et_villages_fleuris_de_la_Mayenne.xlsx
+++ b/biology/Botanique/Liste_des_villes_et_villages_fleuris_de_la_Mayenne/Liste_des_villes_et_villages_fleuris_de_la_Mayenne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La liste des villes et villages fleuris de la Mayenne dresse le nom des communes récompensées par le concours des villes et villages fleuris dans le département de la Mayenne, en Pays de la Loire.
-En 2022, 60 communes du département figurent au palmarès du concours[1], soit quatre communes de moins par rapport aux résultats de 2021.
+En 2022, 60 communes du département figurent au palmarès du concours, soit quatre communes de moins par rapport aux résultats de 2021.
 </t>
         </is>
       </c>
@@ -512,18 +524,129 @@
           <t>Communes labellisées</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'indication de hausse, de baisse ou de stagnation, pour la catégorie 4 fleurs, correspond au précédent résultat (année 2022 par rapport à 2021). Les autres catégories (3, 2 et 1 fleur) n'ont pas d'indications car leurs différents résultats ne reflètent pas obligatoirement une signification positive ou négative.
-Répartition selon le nombre de fleurs
-Les 60 communes sont réparties comme suit :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_la_Mayenne</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_la_Mayenne</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Communes labellisées</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Répartition selon le nombre de fleurs</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les 60 communes sont réparties comme suit :
 4 fleurs : 7 communes. 
 3 fleurs : 12 communes.
 2 fleurs : 23 communes.
-1 fleur : 18 communes.
-Liste des communes
-La liste suivante répertorie les communes de la Mayenne labellisées « Ville ou village fleuri »[a] (la ou les communes promues en 2022 sont identifiées en caractères gras) :
-4 fleurs
+1 fleur : 18 communes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_la_Mayenne</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_la_Mayenne</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Communes labellisées</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des communes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La liste suivante répertorie les communes de la Mayenne labellisées « Ville ou village fleuri »[a] (la ou les communes promues en 2022 sont identifiées en caractères gras) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_la_Mayenne</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_la_Mayenne</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Communes labellisées</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des communes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4 fleurs</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Changé
 Château-Gontier-sur-Mayenne
 Coudray
@@ -531,7 +654,47 @@
 La Cropte
 Lassay-les-Châteaux
 Saint-Loup-du-Gast
-3 fleurs
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_la_Mayenne</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_la_Mayenne</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Communes labellisées</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des communes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3 fleurs</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Ambrières-les-Vallées
 Bouère
 Chailland
@@ -544,7 +707,47 @@
 Saint-Denis-d'Anjou
 Saint-Sulpice
 Sainte-Suzanne-et-Chammes
-2 fleurs
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_la_Mayenne</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_la_Mayenne</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Communes labellisées</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Liste des communes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2 fleurs</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Andouillé
 Argentré
 Bierné-les-Villages
@@ -568,7 +771,47 @@
 Saint-Martin-du-Limet
 Saint-Ouën-des-Toits
 Villiers-Charlemagne
-1 fleur
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_la_Mayenne</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_la_Mayenne</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Communes labellisées</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Liste des communes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1 fleur</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Astillé
 Bouchamps-lès-Craon
 Bouessay
@@ -591,76 +834,151 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Liste_des_villes_et_villages_fleuris_de_la_Mayenne</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_la_Mayenne</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_la_Mayenne</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_la_Mayenne</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Fleurs d'Or
-Château-Gontier Bazouges (2010)[2],[3]
-Juvigné (2008)[4],[5]
-Prix nationaux
-Prix du développement durable : Juvigné (2021)[6].
-Prix de la protection des espaces naturels : Changé (2020)[7].
-Prix de la mise en valeur du patrimoine : Lassay-les-Châteaux (2022)[8], Château-Gontier Bazouges (2016)[9].
-Prix national du jardinier : Juvigné (2011)[10].
-Prix de la diversité végétale : Château-Gontier Bazouges (2010)[3].
-Grand prix National du Fleurissement : Château-Gontier Bazouges (1992, 1995, 1998, 2001, 2004, 2007)[3].
-Prix national de l'arbre : Laval (1994)[11].
-Prix spéciaux
-Prix de la mise en valeur de l'espace communal rural : Coudray (2008).
-Prix du fleurissement des jardins familiaux collectifs : Craon (2009)[12].</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Liste_des_villes_et_villages_fleuris_de_la_Mayenne</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_la_Mayenne</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Fleurs d'Or</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Château-Gontier Bazouges (2010),
+Juvigné (2008),</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_la_Mayenne</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_la_Mayenne</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Prix nationaux</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Prix du développement durable : Juvigné (2021).
+Prix de la protection des espaces naturels : Changé (2020).
+Prix de la mise en valeur du patrimoine : Lassay-les-Châteaux (2022), Château-Gontier Bazouges (2016).
+Prix national du jardinier : Juvigné (2011).
+Prix de la diversité végétale : Château-Gontier Bazouges (2010).
+Grand prix National du Fleurissement : Château-Gontier Bazouges (1992, 1995, 1998, 2001, 2004, 2007).
+Prix national de l'arbre : Laval (1994).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_la_Mayenne</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_la_Mayenne</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Prix spéciaux</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Prix de la mise en valeur de l'espace communal rural : Coudray (2008).
+Prix du fleurissement des jardins familiaux collectifs : Craon (2009).</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_la_Mayenne</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_la_Mayenne</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Département fleuri</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le département de la Mayenne est récompensé du label Département Fleuri en 2009[12].
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le département de la Mayenne est récompensé du label Département Fleuri en 2009.
 </t>
         </is>
       </c>
